--- a/projects/parasheeter/output/l2SwitchA/l2SwitchA.xlsx
+++ b/projects/parasheeter/output/l2SwitchA/l2SwitchA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="common" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="interface" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="common2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="common" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interface" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="common2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -602,7 +602,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="98.75"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3"/>
     <row r="2" spans="1:3">
@@ -613,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row customHeight="1" ht="30" r="3" spans="1:3">
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
@@ -701,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row customHeight="1" ht="306" r="25" spans="1:3">
       <c r="B25" s="3" t="n">
         <v>4</v>
       </c>
